--- a/CR - Cost Report/2_CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/2_CBOM/Processes_cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88A1519-4AA5-45A7-8E3F-751EE5C8357E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067812A-C75E-4319-9DD6-423666A0431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="184">
   <si>
     <t>Assemble by hand</t>
   </si>
@@ -512,9 +512,6 @@
     <t>PCB Heating</t>
   </si>
   <si>
-    <t>1 per Tie wrap</t>
-  </si>
-  <si>
     <t>Assemble the pins with the connector</t>
   </si>
   <si>
@@ -576,6 +573,30 @@
   </si>
   <si>
     <t>3min</t>
+  </si>
+  <si>
+    <t>Place adhesive base for tie-wrap</t>
+  </si>
+  <si>
+    <t>Average cost for 1m with 10 wires</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>Attach and tighten 1 tie-wrap</t>
+  </si>
+  <si>
+    <t>Manual soldering - tin</t>
+  </si>
+  <si>
+    <t>Cut heat shrink tube</t>
+  </si>
+  <si>
+    <t>Strip wire</t>
   </si>
 </sst>
 </file>
@@ -588,7 +609,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1000,6 +1021,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,13 +1037,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1054,11 +1075,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="42">
-          <cell r="J42">
-            <v>11.853030729824322</v>
-          </cell>
-        </row>
         <row r="43">
           <cell r="G43" t="str">
             <v>Operator cost/hour</v>
@@ -1293,18 +1309,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1573,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,11 +1945,11 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="58" t="s">
         <v>141</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>140</v>
@@ -1944,7 +1960,7 @@
       <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="61">
         <f>$L$2*0.5/60</f>
         <v>0.20258969288926404</v>
       </c>
@@ -1955,22 +1971,22 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="59" t="s">
         <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="62">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
@@ -1981,22 +1997,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="59" t="s">
         <v>143</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="62">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
@@ -2007,22 +2023,22 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="59" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="62">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
@@ -2033,20 +2049,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="62">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
@@ -2057,20 +2075,20 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="59" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="66"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="17"/>
       <c r="H21" s="27">
         <f>$L$2*5/60</f>
@@ -2078,186 +2096,202 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="59" t="s">
         <v>145</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="62">
         <f>$L$2*0.5/60</f>
         <v>0.20258969288926404</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="27">
-        <f>F22*G22</f>
+        <f t="shared" ref="H22:H28" si="4">F22*G22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="59" t="s">
         <v>145</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="62">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="27">
-        <f>F23*G23</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="62">
         <f>$L$2/60</f>
         <v>0.40517938577852808</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="27">
-        <f>F24*G24</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="62">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="27">
-        <f>F25*G25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="59" t="s">
         <v>148</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="65"/>
+      <c r="F26" s="62">
+        <f>L2*20/60</f>
+        <v>8.103587715570562</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="27">
-        <f>F26*G26</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="62">
+        <f>L2/60</f>
+        <v>0.40517938577852808</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="27">
-        <f>F27*G27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="59" t="s">
         <v>150</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="62">
         <f>$L$2/60</f>
         <v>0.40517938577852808</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="27">
-        <f>F28*G28</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="59" t="s">
         <v>150</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="62">
         <f>$L$2*3/60</f>
         <v>1.2155381573355843</v>
       </c>
@@ -2265,7 +2299,7 @@
       <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="59" t="s">
         <v>151</v>
       </c>
       <c r="B30" s="1"/>
@@ -2274,27 +2308,27 @@
       <c r="E30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="66"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="17"/>
       <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="59" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="62">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
@@ -2305,113 +2339,115 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="62">
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
+      <c r="B33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="63"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="65">
+      <c r="D34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="62">
         <f>$L$2*0.5/60</f>
         <v>0.20258969288926404</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="27">
-        <f>F33*G33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+      <c r="G34" s="1"/>
+      <c r="H34" s="27">
+        <f>F34*G34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="64"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26">
+      <c r="D38" s="25"/>
+      <c r="E38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26">
         <f>$L$2*6/60</f>
         <v>2.4310763146711687</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="27">
-        <f>$L$2*15/60</f>
-        <v>6.0776907866779215</v>
-      </c>
-    </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="1" t="s">
@@ -2420,8 +2456,8 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="27">
-        <f>$L$2*10/60</f>
-        <v>4.051793857785281</v>
+        <f>$L$2*15/60</f>
+        <v>6.0776907866779215</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2429,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="1" t="s">
@@ -2441,8 +2477,8 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="27">
-        <f>$L$2*15/60</f>
-        <v>6.0776907866779215</v>
+        <f>$L$2*10/60</f>
+        <v>4.051793857785281</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2450,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="1" t="s">
@@ -2462,8 +2498,8 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="27">
-        <f>$L$2*30/60</f>
-        <v>12.155381573355843</v>
+        <f>$L$2*15/60</f>
+        <v>6.0776907866779215</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2471,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="1" t="s">
@@ -2483,8 +2519,8 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="27">
-        <f>$L$2*5/60</f>
-        <v>2.0258969288926405</v>
+        <f>$L$2*30/60</f>
+        <v>12.155381573355843</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2492,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
@@ -2504,7 +2540,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="27">
-        <f t="shared" ref="H43" si="4">$L$2*5/60</f>
+        <f>$L$2*5/60</f>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2513,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="1" t="s">
@@ -2525,8 +2561,8 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="27">
-        <f>$L$2*10/60</f>
-        <v>4.051793857785281</v>
+        <f t="shared" ref="H44" si="5">$L$2*5/60</f>
+        <v>2.0258969288926405</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2534,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -2555,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="1" t="s">
@@ -2567,8 +2603,8 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="27">
-        <f>$L$2*1/60</f>
-        <v>0.40517938577852808</v>
+        <f>$L$2*10/60</f>
+        <v>4.051793857785281</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2576,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>86</v>
@@ -2597,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="1" t="s">
@@ -2609,8 +2645,8 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="27">
-        <f>$L$2*5/60</f>
-        <v>2.0258969288926405</v>
+        <f>$L$2*1/60</f>
+        <v>0.40517938577852808</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
@@ -2634,15 +2670,15 @@
         <v>2.0258969288926405</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="1" t="s">
@@ -2651,19 +2687,19 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="27">
-        <f>$L$2*2*10/60</f>
-        <v>8.103587715570562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$L$2*5/60</f>
+        <v>2.0258969288926405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="1" t="s">
@@ -2672,8 +2708,8 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="27">
-        <f>$L$2*5/60</f>
-        <v>2.0258969288926405</v>
+        <f>$L$2*2*10/60</f>
+        <v>8.103587715570562</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2681,10 +2717,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="1" t="s">
@@ -2693,8 +2729,8 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="27">
-        <f>$L$2*10/60</f>
-        <v>4.051793857785281</v>
+        <f>$L$2*5/60</f>
+        <v>2.0258969288926405</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,10 +2738,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="1" t="s">
@@ -2714,8 +2750,8 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="27">
-        <f t="shared" ref="H53:H54" si="5">$L$2*5/60</f>
-        <v>2.0258969288926405</v>
+        <f>$L$2*10/60</f>
+        <v>4.051793857785281</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2723,7 +2759,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>15</v>
@@ -2735,7 +2771,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H54:H55" si="6">$L$2*5/60</f>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2743,25 +2779,46 @@
       <c r="A55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="27">
+        <f t="shared" si="6"/>
+        <v>2.0258969288926405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="12">
+      <c r="E56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="12">
         <f>$L$2*1/60</f>
         <v>0.40517938577852808</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="27">
-        <f>G55*F55</f>
+      <c r="G56" s="1"/>
+      <c r="H56" s="27">
+        <f>G56*F56</f>
         <v>0</v>
       </c>
     </row>
@@ -3155,7 +3212,7 @@
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="65" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3197,7 +3254,7 @@
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
@@ -3237,7 +3294,7 @@
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="65" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3277,7 +3334,7 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="65" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3311,7 +3368,7 @@
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="65" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3340,7 +3397,7 @@
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
@@ -3367,7 +3424,7 @@
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3391,7 +3448,7 @@
       <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="65" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3417,7 +3474,7 @@
       <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="65" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3443,7 +3500,7 @@
       <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -3467,7 +3524,7 @@
       <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3491,7 +3548,7 @@
       <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="65" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3517,7 +3574,7 @@
       <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -3545,7 +3602,7 @@
       <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="21" t="s">
         <v>55</v>
       </c>
@@ -3571,7 +3628,7 @@
       <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="21" t="s">
         <v>56</v>
       </c>
@@ -3597,7 +3654,7 @@
       <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -3623,7 +3680,7 @@
       <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
@@ -3649,7 +3706,7 @@
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3677,7 +3734,7 @@
       <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -3705,7 +3762,7 @@
       <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
@@ -3731,7 +3788,7 @@
       <c r="J22" s="41"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="21" t="s">
         <v>56</v>
       </c>
@@ -3757,7 +3814,7 @@
       <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
@@ -3783,7 +3840,7 @@
       <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
@@ -3809,7 +3866,7 @@
       <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
@@ -4134,7 +4191,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4160,7 +4217,7 @@
       <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4186,7 +4243,7 @@
       <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4212,7 +4269,7 @@
       <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
@@ -4496,7 +4553,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="67" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -4527,7 +4584,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
@@ -4556,7 +4613,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="65" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4585,7 +4642,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="9" t="s">
         <v>94</v>
       </c>

--- a/CR - Cost Report/2_CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/2_CBOM/Processes_cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C067812A-C75E-4319-9DD6-423666A0431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0A296-1D52-4F5A-B8F3-402AA3B7D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="684" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="Sheet material" sheetId="6" r:id="rId5"/>
     <sheet name="Surface operation" sheetId="7" r:id="rId6"/>
     <sheet name="Welding" sheetId="8" r:id="rId7"/>
+    <sheet name="Card Heating" sheetId="9" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="189">
   <si>
     <t>Assemble by hand</t>
   </si>
@@ -597,6 +598,21 @@
   </si>
   <si>
     <t>Strip wire</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Heat 1 card</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Place CMS component</t>
+  </si>
+  <si>
+    <t>Place the PCB in the Hoven</t>
   </si>
 </sst>
 </file>
@@ -1023,11 +1039,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,6 +1051,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1129,6 +1145,7 @@
       <sheetName val="Laser cutter"/>
       <sheetName val="Welding"/>
       <sheetName val="Conventionnal machinning"/>
+      <sheetName val="Card oven"/>
       <sheetName val="Material"/>
     </sheetNames>
     <sheetDataSet>
@@ -1308,19 +1325,25 @@
             <v>7.7776081938321706</v>
           </cell>
         </row>
+        <row r="102">
+          <cell r="R102">
+            <v>1.0587385955593072</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1591,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1983,7 @@
       <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="60">
         <f>$L$2*0.5/60</f>
         <v>0.20258969288926404</v>
       </c>
@@ -1986,7 +2009,7 @@
       <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="61">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
@@ -2012,7 +2035,7 @@
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="61">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
@@ -2038,7 +2061,7 @@
       <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="61">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
@@ -2050,285 +2073,271 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="62">
+      <c r="D21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="61">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="27">
-        <f>F20*G20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="27">
+        <f>F21*G21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="61">
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="61">
+        <f>$L$2/60</f>
+        <v>0.40517938577852808</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="27">
+        <f>F23*G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="61">
+        <f>$L$2*3/60</f>
+        <v>1.2155381573355843</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="61">
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="27">
+        <f>F25*G25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="27">
+      <c r="D26" s="17"/>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="61">
+        <f>$L$2*0.5/60</f>
+        <v>0.20258969288926404</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="27">
+        <f>F27*G27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="27">
         <f>$L$2*5/60</f>
         <v>2.0258969288926405</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="27">
+        <f>$L$2*5/60</f>
+        <v>2.0258969288926405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="62">
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="61">
         <f>$L$2*0.5/60</f>
         <v>0.20258969288926404</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="27">
-        <f t="shared" ref="H22:H28" si="4">F22*G22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="62">
-        <f>$L$2*0.25/60</f>
-        <v>0.10129484644463202</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="62">
-        <f>$L$2/60</f>
-        <v>0.40517938577852808</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="62">
-        <f>$L$2*0.25/60</f>
-        <v>0.10129484644463202</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="62">
-        <f>L2*20/60</f>
-        <v>8.103587715570562</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="62">
-        <f>L2/60</f>
-        <v>0.40517938577852808</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="62">
-        <f>$L$2/60</f>
-        <v>0.40517938577852808</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="62">
-        <f>$L$2*3/60</f>
-        <v>1.2155381573355843</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="27">
+        <f>F30*G30</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="62">
+      <c r="F31" s="61">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
@@ -2340,62 +2349,73 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="61">
+        <f>$L$2/60</f>
+        <v>0.40517938577852808</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="27">
+        <f>F32*G32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="62">
+      <c r="D33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="61">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="27"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="27">
+        <f>F33*G33</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="62">
-        <f>$L$2*0.5/60</f>
-        <v>0.20258969288926404</v>
+      <c r="F34" s="61">
+        <f>L10*20/60</f>
+        <v>0</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="27">
@@ -2405,17 +2425,29 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="60"/>
+        <v>149</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="E35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="30"/>
+      <c r="F35" s="67">
+        <f>L10/60</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="30">
+        <f>F35*G35</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2561,7 +2593,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="27">
-        <f t="shared" ref="H44" si="5">$L$2*5/60</f>
+        <f t="shared" ref="H44" si="4">$L$2*5/60</f>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2771,7 +2803,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="27">
-        <f t="shared" ref="H54:H55" si="6">$L$2*5/60</f>
+        <f t="shared" ref="H54:H55" si="5">$L$2*5/60</f>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2792,7 +2824,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2823,6 +2855,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:H35">
+    <sortCondition ref="A16:A35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -3120,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3212,7 +3247,7 @@
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="63" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3254,7 +3289,7 @@
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
@@ -3294,7 +3329,7 @@
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3334,7 +3369,7 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3368,7 +3403,7 @@
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3397,7 +3432,7 @@
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
@@ -3424,7 +3459,7 @@
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3448,7 +3483,7 @@
       <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="63" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3474,7 +3509,7 @@
       <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3500,7 +3535,7 @@
       <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -3524,7 +3559,7 @@
       <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3548,7 +3583,7 @@
       <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3574,7 +3609,7 @@
       <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -3602,7 +3637,7 @@
       <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="21" t="s">
         <v>55</v>
       </c>
@@ -3628,7 +3663,7 @@
       <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="21" t="s">
         <v>56</v>
       </c>
@@ -3654,7 +3689,7 @@
       <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -3680,7 +3715,7 @@
       <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
@@ -3706,7 +3741,7 @@
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3734,7 +3769,7 @@
       <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -3762,7 +3797,7 @@
       <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
@@ -3788,7 +3823,7 @@
       <c r="J22" s="41"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="21" t="s">
         <v>56</v>
       </c>
@@ -3814,7 +3849,7 @@
       <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
@@ -3840,7 +3875,7 @@
       <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
@@ -3866,7 +3901,7 @@
       <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
@@ -4191,7 +4226,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4217,7 +4252,7 @@
       <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4243,7 +4278,7 @@
       <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="63" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4269,7 +4304,7 @@
       <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
@@ -4553,7 +4588,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -4584,7 +4619,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
@@ -4613,7 +4648,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="63" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4642,7 +4677,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="9" t="s">
         <v>94</v>
       </c>
@@ -4675,4 +4710,36 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497C76C-5EA6-4E58-A8F6-BCDA33C44AFF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="66">
+        <f>[2]Summary!$R$102</f>
+        <v>1.0587385955593072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/2_CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/2_CBOM/Processes_cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0A296-1D52-4F5A-B8F3-402AA3B7D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69FABC7-CA59-4CA0-828A-B9F8DE1A09A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="684" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -1042,6 +1042,8 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,8 +1053,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1331,19 +1331,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1614,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="27">
-        <f>F30*G30</f>
+        <f t="shared" ref="H30:H35" si="4">F30*G30</f>
         <v>0</v>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="27">
-        <f>F31*G31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="27">
-        <f>F32*G32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="27">
-        <f>F33*G33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="27">
-        <f>F34*G34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2439,13 +2439,13 @@
       <c r="E35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="64">
         <f>L10/60</f>
         <v>0</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="30">
-        <f>F35*G35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="27">
-        <f t="shared" ref="H44" si="4">$L$2*5/60</f>
+        <f t="shared" ref="H44" si="5">$L$2*5/60</f>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="27">
-        <f t="shared" ref="H54:H55" si="5">$L$2*5/60</f>
+        <f t="shared" ref="H54:H55" si="6">$L$2*5/60</f>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -3247,7 +3247,7 @@
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3289,7 +3289,7 @@
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
@@ -3329,7 +3329,7 @@
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3369,7 +3369,7 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3403,7 +3403,7 @@
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="65" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3432,7 +3432,7 @@
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="65" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3509,7 +3509,7 @@
       <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3535,7 +3535,7 @@
       <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="65" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3609,7 +3609,7 @@
       <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -3637,7 +3637,7 @@
       <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="21" t="s">
         <v>55</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="21" t="s">
         <v>56</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3769,7 +3769,7 @@
       <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -3797,7 +3797,7 @@
       <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="J22" s="41"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="21" t="s">
         <v>56</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
@@ -4034,12 +4034,12 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
@@ -4226,7 +4226,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4252,7 +4252,7 @@
       <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4278,7 +4278,7 @@
       <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="65" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4304,7 +4304,7 @@
       <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="67" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -4619,7 +4619,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
@@ -4648,7 +4648,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4677,7 +4677,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="9" t="s">
         <v>94</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="A2" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="63">
         <f>[2]Summary!$R$102</f>
         <v>1.0587385955593072</v>
       </c>

--- a/CR - Cost Report/2_CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/2_CBOM/Processes_cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69FABC7-CA59-4CA0-828A-B9F8DE1A09A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDAF917-6AB0-41E8-9290-3BAABD6995F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CR - Cost Report/2_CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/2_CBOM/Processes_cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDAF917-6AB0-41E8-9290-3BAABD6995F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5937EC70-49C6-4656-978F-B12F3BCC1441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -585,9 +585,6 @@
     <t>10min</t>
   </si>
   <si>
-    <t>20min</t>
-  </si>
-  <si>
     <t>Attach and tighten 1 tie-wrap</t>
   </si>
   <si>
@@ -613,6 +610,9 @@
   </si>
   <si>
     <t>Place the PCB in the Hoven</t>
+  </si>
+  <si>
+    <t>15min</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -932,19 +932,6 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1038,8 +1025,6 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1615,7 +1600,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,6 +1646,30 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12">
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="27">
+        <f t="shared" ref="H2:H7" si="0">F2*G2</f>
+        <v>0</v>
+      </c>
       <c r="K2" s="34" t="str">
         <f>[1]Summary!$G$43</f>
         <v>Operator cost/hour</v>
@@ -1675,24 +1684,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="12">
-        <f>$L$2*0.25/60</f>
-        <v>0.10129484644463202</v>
+        <f>$L$2*0.5/60</f>
+        <v>0.20258969288926404</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="27">
-        <f>F3*G3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="6" t="str">
@@ -1706,27 +1715,27 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="59">
         <f>$L$2*0.5/60</f>
         <v>0.20258969288926404</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="27">
-        <f>F4*G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="6" t="str">
@@ -1739,28 +1748,28 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>118</v>
+      <c r="A5" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="59">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="27">
-        <f>F5*G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="8" t="str">
@@ -1773,144 +1782,140 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>118</v>
+      <c r="A6" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12">
-        <f>$L$2*0.5/60</f>
-        <v>0.20258969288926404</v>
+      <c r="F6" s="59">
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="27">
-        <f>F6*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
-        <v>115</v>
+        <v>143</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="59">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="27">
-        <f>G7*F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>61</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="17"/>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="60"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="27">
-        <f>L2*2/60</f>
-        <v>0.81035877155705616</v>
-      </c>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>86</v>
+        <v>65</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="12">
-        <f t="shared" ref="F9" si="0">$L$2*1/60</f>
-        <v>0.40517938577852808</v>
+      <c r="F9" s="59">
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="27">
-        <f t="shared" ref="H9:H10" si="1">G9*F9</f>
+        <f>F9*G9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="12">
-        <f>$L$2*5/60</f>
-        <v>2.0258969288926405</v>
+      <c r="F10" s="59">
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1"/>
+      <c r="A11" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="12">
-        <f>$L$2*0.5/60</f>
-        <v>0.20258969288926404</v>
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="27">
@@ -1919,151 +1924,186 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="A12" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" ref="F12:F13" si="2">$L$2*0.5/60</f>
+        <f>$L$2*0.5/60</f>
         <v>0.20258969288926404</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="27">
-        <f t="shared" ref="H12:H13" si="3">F12*G12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="29">
-        <f t="shared" si="2"/>
-        <v>0.20258969288926404</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <f>F12*G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="59">
+        <f>$L$2/60</f>
+        <v>0.40517938577852808</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="27">
+        <f>F13*G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="59">
+        <f>$L$2*3/60</f>
+        <v>1.2155381573355843</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="59">
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="27">
+        <f>F15*G15</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="12">
+        <f>$L$2*0.25/60</f>
+        <v>0.10129484644463202</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="27">
+        <f>G16*F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="27">
+        <f>$L$2*2/60</f>
+        <v>0.81035877155705616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="60">
+      <c r="D19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="59">
         <f>$L$2*0.5/60</f>
         <v>0.20258969288926404</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="26">
-        <f>F16*G16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="61">
-        <f>$L$2*0.25/60</f>
-        <v>0.10129484644463202</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="27">
-        <f>F17*G17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="61">
-        <f>$L$2*0.25/60</f>
-        <v>0.10129484644463202</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="27">
-        <f>F18*G18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="61">
-        <f>$L$2*0.25/60</f>
-        <v>0.10129484644463202</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="27">
@@ -2072,380 +2112,322 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="D20" s="17"/>
       <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="27"/>
+      <c r="H20" s="27">
+        <f>$L$2*5/60</f>
+        <v>2.0258969288926405</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="12">
+        <f>$L$2*1/60</f>
+        <v>0.40517938577852808</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="27">
+        <f>G21*F21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="12">
+        <f>$L$2*5/60</f>
+        <v>2.0258969288926405</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="27">
+        <f>G22*F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="60"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="27">
+        <f>$L$2*5/60</f>
+        <v>2.0258969288926405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="59">
+        <f>$L$2*0.5/60</f>
+        <v>0.20258969288926404</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="27">
+        <f t="shared" ref="H24:H32" si="1">F24*G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="61">
+      <c r="D25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="59">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="27">
-        <f>F21*G21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="59">
+        <f>$L$2/60</f>
+        <v>0.40517938577852808</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="61">
+      <c r="D27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="59">
         <f>$L$2*0.25/60</f>
         <v>0.10129484644463202</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="61">
+      <c r="G27" s="1"/>
+      <c r="H27" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="59">
+        <f>$L$2*15/60</f>
+        <v>6.0776907866779215</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="12">
+        <f>$L$2*0.5/60</f>
+        <v>0.20258969288926404</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="12">
+        <f>$L$2*0.5/60</f>
+        <v>0.20258969288926404</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="12">
+        <f>$L$2*0.5/60</f>
+        <v>0.20258969288926404</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="62">
         <f>$L$2/60</f>
         <v>0.40517938577852808</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="27">
-        <f>F23*G23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="61">
-        <f>$L$2*3/60</f>
-        <v>1.2155381573355843</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="61">
-        <f>$L$2*0.25/60</f>
-        <v>0.10129484644463202</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="27">
-        <f>F25*G25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="61">
-        <f>$L$2*0.5/60</f>
-        <v>0.20258969288926404</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="27">
-        <f>F27*G27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="27">
-        <f>$L$2*5/60</f>
-        <v>2.0258969288926405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="27">
-        <f>$L$2*5/60</f>
-        <v>2.0258969288926405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="61">
-        <f>$L$2*0.5/60</f>
-        <v>0.20258969288926404</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="27">
-        <f t="shared" ref="H30:H35" si="4">F30*G30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="61">
-        <f>$L$2*0.25/60</f>
-        <v>0.10129484644463202</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="61">
-        <f>$L$2/60</f>
-        <v>0.40517938577852808</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="61">
-        <f>$L$2*0.25/60</f>
-        <v>0.10129484644463202</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="61">
-        <f>L10*20/60</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="64">
-        <f>L10/60</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="30">
-        <f t="shared" si="4"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2593,7 +2575,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="27">
-        <f t="shared" ref="H44" si="5">$L$2*5/60</f>
+        <f t="shared" ref="H44" si="2">$L$2*5/60</f>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2803,7 +2785,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="27">
-        <f t="shared" ref="H54:H55" si="6">$L$2*5/60</f>
+        <f t="shared" ref="H54:H55" si="3">$L$2*5/60</f>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2824,7 +2806,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2.0258969288926405</v>
       </c>
     </row>
@@ -2855,14 +2837,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:H35">
-    <sortCondition ref="A16:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="H8 F4 F6" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2871,7 +2850,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,7 +3135,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,7 +3226,7 @@
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="63" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3289,7 +3268,7 @@
       <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
@@ -3329,7 +3308,7 @@
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3369,7 +3348,7 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3403,7 +3382,7 @@
       <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3432,7 +3411,7 @@
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
@@ -3459,7 +3438,7 @@
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3483,7 +3462,7 @@
       <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="63" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3509,7 +3488,7 @@
       <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3535,7 +3514,7 @@
       <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -3559,7 +3538,7 @@
       <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3583,7 +3562,7 @@
       <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3609,7 +3588,7 @@
       <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -3637,7 +3616,7 @@
       <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="21" t="s">
         <v>55</v>
       </c>
@@ -3663,7 +3642,7 @@
       <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="21" t="s">
         <v>56</v>
       </c>
@@ -3689,7 +3668,7 @@
       <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -3715,7 +3694,7 @@
       <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
@@ -3741,7 +3720,7 @@
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3769,7 +3748,7 @@
       <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="63" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -3797,7 +3776,7 @@
       <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="21" t="s">
         <v>55</v>
       </c>
@@ -3823,7 +3802,7 @@
       <c r="J22" s="41"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="21" t="s">
         <v>56</v>
       </c>
@@ -3849,7 +3828,7 @@
       <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
@@ -3875,7 +3854,7 @@
       <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
@@ -3901,7 +3880,7 @@
       <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
@@ -4226,7 +4205,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4252,7 +4231,7 @@
       <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4278,7 +4257,7 @@
       <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="63" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4304,7 +4283,7 @@
       <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
@@ -4588,7 +4567,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -4619,7 +4598,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
@@ -4648,7 +4627,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="63" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4677,7 +4656,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="9" t="s">
         <v>94</v>
       </c>
@@ -4724,17 +4703,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="63">
+        <v>184</v>
+      </c>
+      <c r="B2" s="61">
         <f>[2]Summary!$R$102</f>
         <v>1.0587385955593072</v>
       </c>
